--- a/public/events_export.xlsx
+++ b/public/events_export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Nom</t>
   </si>
@@ -108,6 +108,72 @@
   </si>
   <si>
     <t>VVVVVVV</t>
+  </si>
+  <si>
+    <t>pusspuss</t>
+  </si>
+  <si>
+    <t>2024-05-08 00:00:00</t>
+  </si>
+  <si>
+    <t>meaow meawo</t>
+  </si>
+  <si>
+    <t>meaow meawo miaaw</t>
+  </si>
+  <si>
+    <t>yessin</t>
+  </si>
+  <si>
+    <t>2024-04-10 00:00:00</t>
+  </si>
+  <si>
+    <t>2024-04-18 00:00:00</t>
+  </si>
+  <si>
+    <t>manai</t>
+  </si>
+  <si>
+    <t>yessinss</t>
+  </si>
+  <si>
+    <t>manaiss</t>
+  </si>
+  <si>
+    <t>asma</t>
+  </si>
+  <si>
+    <t>2024-04-30 00:00:00</t>
+  </si>
+  <si>
+    <t>pppssss</t>
+  </si>
+  <si>
+    <t>yeseer</t>
+  </si>
+  <si>
+    <t>2024-04-24 00:00:00</t>
+  </si>
+  <si>
+    <t>qqqqqqqqqqqqqqqqqqq</t>
+  </si>
+  <si>
+    <t>PPPPPPPP</t>
+  </si>
+  <si>
+    <t>2024-04-04 00:00:00</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>jhjhjhj</t>
+  </si>
+  <si>
+    <t>2024-04-12 00:00:00</t>
+  </si>
+  <si>
+    <t>tyty</t>
   </si>
 </sst>
 </file>
@@ -447,7 +513,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +633,132 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
